--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_11.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11277.43086167759</v>
+        <v>9707.028058745691</v>
       </c>
     </row>
     <row r="7">
@@ -26320,13 +26320,13 @@
         <v>59129.07304229552</v>
       </c>
       <c r="E2" t="n">
-        <v>62876.30148242498</v>
+        <v>62876.30148242497</v>
       </c>
       <c r="F2" t="n">
-        <v>62876.30148242498</v>
+        <v>62876.30148242497</v>
       </c>
       <c r="G2" t="n">
-        <v>62876.30148242498</v>
+        <v>62876.30148242497</v>
       </c>
       <c r="H2" t="n">
         <v>62876.30148242498</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48119.72719740959</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="C4" t="n">
-        <v>48119.72719740959</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="D4" t="n">
-        <v>48119.72719740959</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="E4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="F4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="G4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="H4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="I4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="J4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="K4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="L4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="M4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="N4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="O4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="P4" t="n">
-        <v>28515.99717915458</v>
+        <v>28669.24800161989</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22618.25415511407</v>
+        <v>-22876.85944685534</v>
       </c>
       <c r="C6" t="n">
-        <v>-22618.25415511407</v>
+        <v>-22876.85944685534</v>
       </c>
       <c r="D6" t="n">
-        <v>-22618.25415511407</v>
+        <v>-22876.85944685534</v>
       </c>
       <c r="E6" t="n">
-        <v>-102351.307801738</v>
+        <v>-102504.5586242032</v>
       </c>
       <c r="F6" t="n">
-        <v>30748.69219826207</v>
+        <v>30595.44137579676</v>
       </c>
       <c r="G6" t="n">
-        <v>30748.69219826207</v>
+        <v>30595.44137579676</v>
       </c>
       <c r="H6" t="n">
-        <v>30748.69219826207</v>
+        <v>30595.44137579676</v>
       </c>
       <c r="I6" t="n">
-        <v>30748.69219826207</v>
+        <v>30595.44137579676</v>
       </c>
       <c r="J6" t="n">
-        <v>30748.69219826207</v>
+        <v>30595.44137579676</v>
       </c>
       <c r="K6" t="n">
-        <v>30748.69219826207</v>
+        <v>30595.44137579676</v>
       </c>
       <c r="L6" t="n">
-        <v>30748.69219826207</v>
+        <v>30595.44137579676</v>
       </c>
       <c r="M6" t="n">
-        <v>30748.69219826207</v>
+        <v>30595.44137579676</v>
       </c>
       <c r="N6" t="n">
-        <v>30748.69219826207</v>
+        <v>30595.44137579676</v>
       </c>
       <c r="O6" t="n">
-        <v>30748.69219826207</v>
+        <v>30595.44137579676</v>
       </c>
       <c r="P6" t="n">
-        <v>30748.69219826207</v>
+        <v>30595.44137579676</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9707.028058745691</v>
+        <v>23433.38619616382</v>
       </c>
     </row>
     <row r="7">
@@ -26320,7 +26322,7 @@
         <v>59129.07304229552</v>
       </c>
       <c r="E2" t="n">
-        <v>62876.30148242497</v>
+        <v>62876.30148242498</v>
       </c>
       <c r="F2" t="n">
         <v>62876.30148242497</v>
@@ -26329,31 +26331,31 @@
         <v>62876.30148242497</v>
       </c>
       <c r="H2" t="n">
-        <v>62876.30148242498</v>
+        <v>62876.30148242497</v>
       </c>
       <c r="I2" t="n">
-        <v>62876.30148242498</v>
+        <v>62876.30148242497</v>
       </c>
       <c r="J2" t="n">
-        <v>62876.30148242498</v>
+        <v>62876.30148242497</v>
       </c>
       <c r="K2" t="n">
-        <v>62876.30148242498</v>
+        <v>62876.30148242497</v>
       </c>
       <c r="L2" t="n">
-        <v>62876.30148242498</v>
+        <v>62876.30148242497</v>
       </c>
       <c r="M2" t="n">
-        <v>62876.30148242498</v>
+        <v>62876.30148242497</v>
       </c>
       <c r="N2" t="n">
-        <v>62876.30148242498</v>
+        <v>62876.30148242497</v>
       </c>
       <c r="O2" t="n">
-        <v>62876.30148242498</v>
+        <v>62876.30148242497</v>
       </c>
       <c r="P2" t="n">
-        <v>62876.30148242498</v>
+        <v>62876.30148242497</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26418,43 +26420,43 @@
         <v>48378.33248915087</v>
       </c>
       <c r="C4" t="n">
-        <v>48378.33248915087</v>
+        <v>48378.33248915088</v>
       </c>
       <c r="D4" t="n">
         <v>48378.33248915087</v>
       </c>
       <c r="E4" t="n">
-        <v>28669.24800161989</v>
+        <v>28669.24800161988</v>
       </c>
       <c r="F4" t="n">
         <v>28669.24800161989</v>
       </c>
       <c r="G4" t="n">
-        <v>28669.24800161989</v>
+        <v>28669.24800161988</v>
       </c>
       <c r="H4" t="n">
         <v>28669.24800161989</v>
       </c>
       <c r="I4" t="n">
-        <v>28669.24800161989</v>
+        <v>28669.24800161988</v>
       </c>
       <c r="J4" t="n">
         <v>28669.24800161989</v>
       </c>
       <c r="K4" t="n">
-        <v>28669.24800161989</v>
+        <v>28669.24800161988</v>
       </c>
       <c r="L4" t="n">
         <v>28669.24800161989</v>
       </c>
       <c r="M4" t="n">
-        <v>28669.24800161989</v>
+        <v>28669.24800161988</v>
       </c>
       <c r="N4" t="n">
         <v>28669.24800161989</v>
       </c>
       <c r="O4" t="n">
-        <v>28669.24800161989</v>
+        <v>28669.24800161988</v>
       </c>
       <c r="P4" t="n">
         <v>28669.24800161989</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22876.85944685534</v>
+        <v>-22876.85944685535</v>
       </c>
       <c r="C6" t="n">
-        <v>-22876.85944685534</v>
+        <v>-22876.85944685536</v>
       </c>
       <c r="D6" t="n">
-        <v>-22876.85944685534</v>
+        <v>-22876.85944685535</v>
       </c>
       <c r="E6" t="n">
-        <v>-102504.5586242032</v>
+        <v>-102504.5586242033</v>
       </c>
       <c r="F6" t="n">
         <v>30595.44137579676</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23433.38619616382</v>
+        <v>-101676.5126013128</v>
       </c>
     </row>
     <row r="7">
@@ -26319,7 +26319,7 @@
         <v>59129.07304229552</v>
       </c>
       <c r="D2" t="n">
-        <v>59129.07304229552</v>
+        <v>59129.07304229551</v>
       </c>
       <c r="E2" t="n">
         <v>62876.30148242498</v>
@@ -26429,37 +26429,37 @@
         <v>28669.24800161988</v>
       </c>
       <c r="F4" t="n">
+        <v>28669.24800161988</v>
+      </c>
+      <c r="G4" t="n">
         <v>28669.24800161989</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>28669.24800161988</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>28669.24800161989</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>28669.24800161988</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>28669.24800161989</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>28669.24800161988</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>28669.24800161989</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>28669.24800161988</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>28669.24800161989</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>28669.24800161988</v>
-      </c>
-      <c r="P4" t="n">
-        <v>28669.24800161989</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22876.85944685535</v>
+        <v>-38027.53341689012</v>
       </c>
       <c r="C6" t="n">
-        <v>-22876.85944685536</v>
+        <v>-38027.53341689012</v>
       </c>
       <c r="D6" t="n">
-        <v>-22876.85944685535</v>
+        <v>-38027.53341689013</v>
       </c>
       <c r="E6" t="n">
-        <v>-102504.5586242033</v>
+        <v>-117314.5754633172</v>
       </c>
       <c r="F6" t="n">
-        <v>30595.44137579676</v>
+        <v>15785.42453668286</v>
       </c>
       <c r="G6" t="n">
-        <v>30595.44137579676</v>
+        <v>15785.42453668286</v>
       </c>
       <c r="H6" t="n">
-        <v>30595.44137579676</v>
+        <v>15785.42453668286</v>
       </c>
       <c r="I6" t="n">
-        <v>30595.44137579676</v>
+        <v>15785.42453668286</v>
       </c>
       <c r="J6" t="n">
-        <v>30595.44137579676</v>
+        <v>15785.42453668286</v>
       </c>
       <c r="K6" t="n">
-        <v>30595.44137579676</v>
+        <v>15785.42453668286</v>
       </c>
       <c r="L6" t="n">
-        <v>30595.44137579676</v>
+        <v>15785.42453668286</v>
       </c>
       <c r="M6" t="n">
-        <v>30595.44137579676</v>
+        <v>15785.42453668286</v>
       </c>
       <c r="N6" t="n">
-        <v>30595.44137579676</v>
+        <v>15785.42453668286</v>
       </c>
       <c r="O6" t="n">
-        <v>30595.44137579676</v>
+        <v>15785.42453668286</v>
       </c>
       <c r="P6" t="n">
-        <v>30595.44137579676</v>
+        <v>15785.42453668286</v>
       </c>
     </row>
   </sheetData>
